--- a/Martan.xlsx
+++ b/Martan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20375"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\WEB\zaver\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shosp\Desktop\Honzik\WEB závěrečná práce\git\sudoku\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDC40698-945B-4D07-B6F2-EE5E8980E7E0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5266CB98-9919-4FD7-B5B8-79E7F3C0A36A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="32">
   <si>
     <t>HTML</t>
   </si>
@@ -311,7 +311,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -328,12 +328,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -353,7 +349,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -643,8 +638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -656,12 +651,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="16" t="s">
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="14" t="s">
         <v>27</v>
       </c>
     </row>
@@ -685,10 +680,10 @@
       <c r="B4" s="2">
         <v>1</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="17" t="s">
         <v>28</v>
       </c>
     </row>
@@ -702,7 +697,7 @@
       <c r="C5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="20"/>
+      <c r="D5" s="17"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -714,15 +709,15 @@
       <c r="C6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="20"/>
+      <c r="D6" s="17"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="20"/>
+      <c r="D7" s="17"/>
     </row>
     <row r="8" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -734,7 +729,7 @@
       <c r="C8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="20"/>
+      <c r="D8" s="17"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -743,10 +738,10 @@
       <c r="B9" s="2">
         <v>1</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="20"/>
+      <c r="D9" s="17"/>
     </row>
     <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
@@ -758,7 +753,7 @@
       <c r="C10" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="20"/>
+      <c r="D10" s="17"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
@@ -775,10 +770,10 @@
       <c r="B12" s="2">
         <v>1</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="20" t="s">
+      <c r="D12" s="17" t="s">
         <v>29</v>
       </c>
     </row>
@@ -789,10 +784,10 @@
       <c r="B13" s="2">
         <v>1</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="20"/>
+      <c r="D13" s="17"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
@@ -801,20 +796,20 @@
       <c r="B14" s="2">
         <v>2</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="20"/>
+      <c r="D14" s="17"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2">
         <v>2</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="20"/>
+      <c r="D15" s="17"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
@@ -823,10 +818,10 @@
       <c r="B16" s="2">
         <v>1</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="20"/>
+      <c r="D16" s="17"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
@@ -834,7 +829,7 @@
         <f>SUM(B12:B16)</f>
         <v>7</v>
       </c>
-      <c r="C17" s="19"/>
+      <c r="C17" s="2"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
@@ -843,10 +838,10 @@
       <c r="B18" s="2">
         <v>1</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="20" t="s">
+      <c r="D18" s="17" t="s">
         <v>30</v>
       </c>
     </row>
@@ -860,7 +855,7 @@
       <c r="C19" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="20"/>
+      <c r="D19" s="17"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
@@ -872,7 +867,7 @@
       <c r="C20" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D20" s="20"/>
+      <c r="D20" s="17"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
@@ -884,7 +879,7 @@
       <c r="C21" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="20"/>
+      <c r="D21" s="17"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
@@ -893,10 +888,10 @@
       <c r="B22" s="2">
         <v>1</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="C22" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="14" t="s">
+      <c r="D22" s="12" t="s">
         <v>28</v>
       </c>
     </row>
@@ -910,7 +905,7 @@
       <c r="C23" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D23" s="20" t="s">
+      <c r="D23" s="17" t="s">
         <v>30</v>
       </c>
     </row>
@@ -921,22 +916,22 @@
       <c r="B24" s="8">
         <v>1</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="C24" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D24" s="20"/>
+      <c r="D24" s="17"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B25" s="10">
+      <c r="B25" s="2">
         <v>1</v>
       </c>
       <c r="C25" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D25" s="15" t="s">
+      <c r="D25" s="13" t="s">
         <v>29</v>
       </c>
     </row>
@@ -949,7 +944,7 @@
         <v>11</v>
       </c>
       <c r="C26" s="3"/>
-      <c r="D26" s="15"/>
+      <c r="D26" s="13"/>
     </row>
     <row r="27" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
@@ -965,7 +960,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
-      <c r="B29" s="12"/>
+      <c r="B29" s="10"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
